--- a/ValueSet-i2x-efr.xlsx
+++ b/ValueSet-i2x-efr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-09T15:00:50+02:00</t>
+    <t>2025-04-14</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Vers Un Souffle Nouveau FHIR IG (C) 2025-2025 University Hospital of Liege, GSI Department, Belgium. This implementation guide is free software: you can redistribute it and/or modify it under the terms of the GNU General Public License as published by the Free Software Foundation, either version 3 of the License, or (at your option) any later version. This program is distributed in the hope that it will be useful, but WITHOUT ANY WARRANTY; without even the implied warranty of MERCHANTABILITY or FITNESS FOR A PARTICULAR PURPOSE. See the GNU General Public License for more details. You should have received a copy of the GNU General Public License along with this program. If not, see &lt;http://www.gnu.org/licenses/&gt;.</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -369,14 +372,16 @@
       <c r="A14" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -398,7 +403,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -406,10 +411,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -422,10 +427,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -447,7 +452,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -455,18 +460,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +484,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-i2x-efr.xlsx
+++ b/ValueSet-i2x-efr.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
-    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -43,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Observations d'une épreuve fonctionnelle respiratoire</t>
+    <t>Jeu d'observations d'une épreuve fonctionnelle respiratoire</t>
   </si>
   <si>
     <t>Status</t>
@@ -82,6 +81,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Jeu d'bservations d'une épreuve fonctionnelle respiratoire</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -100,31 +102,76 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>19876-2</t>
+  </si>
+  <si>
+    <t>Forced vital capacity by Spirometry --pre bronchodilation</t>
+  </si>
+  <si>
+    <t>20157-4</t>
+  </si>
+  <si>
+    <t>FEV1 --pre bronchodilation</t>
+  </si>
+  <si>
     <t>81450-9</t>
   </si>
   <si>
-    <t>Capacité pulmonaire totale</t>
+    <t>Total lung capacity --pre bronchodilation</t>
+  </si>
+  <si>
+    <t>19926-5</t>
+  </si>
+  <si>
+    <t>FEV1/FVC</t>
+  </si>
+  <si>
+    <t>19871-3</t>
+  </si>
+  <si>
+    <t>FVC pre bronchodilation measured/predicted</t>
+  </si>
+  <si>
+    <t>20152-5</t>
+  </si>
+  <si>
+    <t>FEV1 measured/predicted</t>
+  </si>
+  <si>
+    <t>89085-5</t>
+  </si>
+  <si>
+    <t>Total lung capacity/Predicted total lung capacity</t>
+  </si>
+  <si>
+    <t>81454-1</t>
+  </si>
+  <si>
+    <t>Residual volume/Total capacity --pre bronchodilation</t>
+  </si>
+  <si>
+    <t>43252-6</t>
+  </si>
+  <si>
+    <t>Residual volume/Total capacity predicted</t>
+  </si>
+  <si>
+    <t>98130-8</t>
+  </si>
+  <si>
+    <t>Diffusion capacity.carbon monoxide/Predicted</t>
+  </si>
+  <si>
+    <t>98203-3</t>
+  </si>
+  <si>
+    <t>(Diffusion capacity/Alveolar volume)/predicted</t>
   </si>
   <si>
     <t>System URI</t>
   </si>
   <si>
     <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>407602006</t>
-  </si>
-  <si>
-    <t>Volume expiratoire maximal par seconde</t>
-  </si>
-  <si>
-    <t>313222007</t>
-  </si>
-  <si>
-    <t>Volume expiratoire maximal par seconde divisé par la capacité vitale forcée</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -359,29 +406,29 @@
         <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -391,7 +438,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +450,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>21</v>
@@ -411,83 +458,106 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-i2x-efr.xlsx
+++ b/ValueSet-i2x-efr.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -90,7 +90,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Vers Un Souffle Nouveau FHIR IG (C) 2025-2025 University Hospital of Liege, GSI Department, Belgium. This implementation guide is free software: you can redistribute it and/or modify it under the terms of the GNU General Public License as published by the Free Software Foundation, either version 3 of the License, or (at your option) any later version. This program is distributed in the hope that it will be useful, but WITHOUT ANY WARRANTY; without even the implied warranty of MERCHANTABILITY or FITNESS FOR A PARTICULAR PURPOSE. See the GNU General Public License for more details. You should have received a copy of the GNU General Public License along with this program. If not, see &lt;http://www.gnu.org/licenses/&gt;.</t>
+    <t>RM@H IG (C) 2025-2025 University Hospital of Liege, GSI Department, Belgium. This implementation guide is free software: you can redistribute it and/or modify it under the terms of the GNU General Public License as published by the Free Software Foundation, either version 3 of the License, or (at your option) any later version. This program is distributed in the hope that it will be useful, but WITHOUT ANY WARRANTY; without even the implied warranty of MERCHANTABILITY or FITNESS FOR A PARTICULAR PURPOSE. See the GNU General Public License for more details. You should have received a copy of the GNU General Public License along with this program. If not, see &lt;http://www.gnu.org/licenses/&gt;.</t>
   </si>
   <si>
     <t>Immutable</t>
